--- a/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Group 2A (qualifier value)</t>
+  </si>
+  <si>
+    <t>1156316003</t>
+  </si>
+  <si>
+    <t>Cannot be determined (qualifier value)</t>
   </si>
   <si>
     <t/>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,15 +465,23 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-mpox-org.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
